--- a/medicine/Enfance/Raymond_Plante/Raymond_Plante.xlsx
+++ b/medicine/Enfance/Raymond_Plante/Raymond_Plante.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Raymond Plante, né le 26 juin 1947 à Montréal et mort dans cette même ville d'un infarctus[1] le 15 février 2006, est un écrivain québécois, spécialisé dans la littérature d'enfance et de jeunesse.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Raymond Plante, né le 26 juin 1947 à Montréal et mort dans cette même ville d'un infarctus le 15 février 2006, est un écrivain québécois, spécialisé dans la littérature d'enfance et de jeunesse.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait des études en littérature à l'Université du Québec à Montréal.
 À partir 1973, il travaille pour la radio. Il écrit, entre autres, des textes pour des émissions telles que Premières, Micro-théâtre et Le Feuilleton. Pour la télévision, il écrit plus de 1 000 textes pour enfants  pour des séries pour enfants, comme Pop citrouille, L'Ingénieux Don Quichotte et Minibus, ou pour adultes, dont Du tac au tac, Poussière d'automne et Le Cœur au mur. Il est aussi l'auteur de plus de 400 chansons pour enfants.
@@ -546,23 +560,134 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sauf mention, tous les titres sont parus aux Éditions du Boréal
-Romans
-La Débarque, L'Actuelle (1974)
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Sauf mention, tous les titres sont parus aux Éditions du Boréal</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Raymond_Plante</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Raymond_Plante</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La Débarque, L'Actuelle (1974)
 Le Train sauvage, Québec-Amérique (1984)
 Le Vieil Arbre et les amis : souvenir de ma première communion (1976)
 Avec l'été (1991)
-Un singe m'a parlé de toi (1993)
-Ouvrages de littérature d'enfance et de jeunesse
-Série François Gougon, le raisin
-Le Dernier des raisins (1986)
+Un singe m'a parlé de toi (1993)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Raymond_Plante</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Raymond_Plante</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Ouvrages de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Série François Gougon, le raisin</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le Dernier des raisins (1986)
 Des hot-dogs sous le soleil (1987)
 Y a-t-il un raisin dans cet avion ? (1988)
-Le raisin devient banane (1989)
-Série Marilou Polaire
-Les Manigances de Marilou Polaire, La Courte Échelle (1996)
+Le raisin devient banane (1989)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Raymond_Plante</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Raymond_Plante</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Ouvrages de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Série Marilou Polaire</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Les Manigances de Marilou Polaire, La Courte Échelle (1996)
 Le Grand Rôle de Marilou Polaire, La Courte Échelle (1997)
 Marilou Polaire et l'iguane des neiges, La Courte Échelle (1998)
 Le Long Nez Marilou Polaire, La Courte Échelle (1998)
@@ -571,12 +696,88 @@
 Marilou Polaire sur un arbre perché, La Courte Échelle (2001)
 Marilou Polaire et la magie des étoiles, La Courte Échelle (2002)
 Un dromadaire chez Marilou Polaire, La Courte Échelle (2003)
-Marilou Polaire et le petit pois, La Courte Échelle (2006)
-Série Bébert Waff et les doguadous
-Un canard entre les canines (2004)
-La Vedette de la ronflette (2005)
-Autres ouvrages de littérature d'enfance et de jeunesse
-Une fenêtre dans ma tête, Éditions La Courte Échelle (1979)
+Marilou Polaire et le petit pois, La Courte Échelle (2006)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Raymond_Plante</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Raymond_Plante</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Ouvrages de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Série Bébert Waff et les doguadous</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Un canard entre les canines (2004)
+La Vedette de la ronflette (2005)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Raymond_Plante</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Raymond_Plante</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Ouvrages de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Autres ouvrages de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Une fenêtre dans ma tête, Éditions La Courte Échelle (1979)
 Monsieur Genou, Québec-Amérique (1981)
 La Machine à beauté, Québec-Amérique (1982)
 Clins d'oeil et Pieds de nez, La Courte Échelle (1982)
@@ -609,50 +810,154 @@
 Le Gros Appétit de Thomas Petit, Les 400 coups (2004)
 Le Crocodile de madame Grimace, Les 400 coups (2005)
 Pas sérieux, Les 400 coups (2006), publication posthume
-Le Chaud Manteau de Léo (2006), publication posthume
-Biographies
-Jacques Plante : derrière le masque, XYZ éditeur (1996)
-Robert Gravel : les pistes du cheval indompté, Les 400 coups (2004), en collaboration avec Yvon Leduc
-Recueil de nouvelles
-Minibus, Québec-Amérique (1985)
-Nouvelle
-Retour à Montréal, Moebius, no  107, 2005, p. 91-98.
+Le Chaud Manteau de Léo (2006), publication posthume</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Raymond_Plante</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Raymond_Plante</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biographies</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Jacques Plante : derrière le masque, XYZ éditeur (1996)
+Robert Gravel : les pistes du cheval indompté, Les 400 coups (2004), en collaboration avec Yvon Leduc</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Raymond_Plante</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Raymond_Plante</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Recueil de nouvelles</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Minibus, Québec-Amérique (1985)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Raymond_Plante</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Raymond_Plante</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Nouvelle</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Retour à Montréal, Moebius, no  107, 2005, p. 91-98.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Raymond_Plante</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Raymond_Plante</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Raymond_Plante</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Raymond_Plante</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>1974 - Prix de L'Actuelle, La Débarque
 1982 - Prix Québec-Wallonie-Bruxelles de littérature de jeunesse
 1982 - Concours littéraire ACELF
 1986 - Prix de littérature de jeunesse du Conseil des Arts du Canada
 1987 - Concours littéraire ACELF
-1988 : (international) « Honour List »[2] de l' IBBY pour Le dernier des raisins
+1988 : (international) « Honour List » de l' IBBY pour Le dernier des raisins
 1993 - Finaliste au Prix du Gouverneur général, Les Dents de la poule
 1993 - Prix littéraire Desjardins
 1994 - Prix 12/17 Brive-Montréal
